--- a/licensedocs/license_contracts.xlsx
+++ b/licensedocs/license_contracts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciradukunda/Documents/WORK/ElicenseUAT/license-management-system-frontend/licensedocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F089ED02-AD37-004C-A6D7-34BFA1B89B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382AE9A1-C85A-364D-BD93-1859B9F0C361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{069B6A2B-B9BE-0340-8E09-6DD96E3C4550}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18180" xr2:uid="{069B6A2B-B9BE-0340-8E09-6DD96E3C4550}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>department</t>
   </si>
@@ -77,13 +77,10 @@
     <t>document_link</t>
   </si>
   <si>
-    <t>rthethtrhtrh</t>
-  </si>
-  <si>
-    <t>gfhfgdbdytn</t>
-  </si>
-  <si>
     <t>system_tools</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
 </sst>
 </file>
@@ -468,7 +465,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,15 +513,15 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>333</v>
+        <v>170</v>
       </c>
       <c r="B2">
-        <v>5546464</v>
+        <v>40000</v>
       </c>
       <c r="C2" s="1">
         <v>45763</v>
@@ -539,10 +536,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -556,10 +553,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>5567788</v>
+        <v>180</v>
       </c>
       <c r="B3">
-        <v>654654645</v>
+        <v>50000</v>
       </c>
       <c r="C3" s="1">
         <v>45734</v>
@@ -586,7 +583,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/licensedocs/license_contracts.xlsx
+++ b/licensedocs/license_contracts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciradukunda/Documents/WORK/ElicenseUAT/license-management-system-frontend/licensedocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382AE9A1-C85A-364D-BD93-1859B9F0C361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0853ED0-DF2F-DF4F-9B40-CA9604676328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18180" xr2:uid="{069B6A2B-B9BE-0340-8E09-6DD96E3C4550}"/>
+    <workbookView xWindow="0" yWindow="1460" windowWidth="30240" windowHeight="18180" xr2:uid="{069B6A2B-B9BE-0340-8E09-6DD96E3C4550}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>department</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>nothing</t>
+  </si>
+  <si>
+    <t>payment_frequency</t>
+  </si>
+  <si>
+    <t>QUARTER</t>
+  </si>
+  <si>
+    <t>MIDYEAR</t>
   </si>
 </sst>
 </file>
@@ -90,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,6 +109,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Menlo"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Menlo"/>
       <family val="3"/>
     </font>
@@ -124,10 +140,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52A7B32-4F7E-4547-AA91-B0143417F7C2}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +498,7 @@
     <col min="10" max="11" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -515,10 +532,13 @@
       <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>170</v>
+        <v>9759490</v>
       </c>
       <c r="B2">
         <v>40000</v>
@@ -550,10 +570,13 @@
       <c r="K2">
         <v>1</v>
       </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>180</v>
+        <v>85940303</v>
       </c>
       <c r="B3">
         <v>50000</v>
@@ -584,6 +607,9 @@
       </c>
       <c r="K3">
         <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
